--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43692,6 +43692,43 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43729,6 +43729,43 @@
         </is>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43766,6 +43766,41 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>50900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43801,6 +43801,43 @@
         <v>50900</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43838,6 +43838,41 @@
         </is>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43873,6 +43873,41 @@
         <v>200</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43908,6 +43908,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>34700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43943,6 +43943,41 @@
         <v>34700</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43978,6 +43978,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44015,6 +44015,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44052,6 +44052,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44087,6 +44087,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>12400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44122,6 +44122,80 @@
         <v>12400</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44196,6 +44196,80 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44270,6 +44270,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>42000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44305,6 +44305,41 @@
         <v>42000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44340,6 +44340,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44375,6 +44375,43 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44412,6 +44412,80 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1229" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44486,6 +44486,43 @@
         </is>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1231" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44523,6 +44523,41 @@
         </is>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2066"/>
+  <dimension ref="A1:I2067"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73748,6 +73748,43 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="2067">
+      <c r="A2067" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2067" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2067" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2067" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2067" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F2067" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G2067" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2067" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I2067" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2067"/>
+  <dimension ref="A1:I2068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73785,6 +73785,41 @@
         </is>
       </c>
     </row>
+    <row r="2068">
+      <c r="A2068" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2068" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2068" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2068" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2068" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2068" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G2068" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2068" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2068" t="n">
+        <v>31000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2068"/>
+  <dimension ref="A1:I2069"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73820,6 +73820,41 @@
         <v>31000</v>
       </c>
     </row>
+    <row r="2069">
+      <c r="A2069" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2069" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2069" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2069" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2069" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2069" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2069" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2069" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2069" t="n">
+        <v>98200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2069"/>
+  <dimension ref="A1:I2070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73855,6 +73855,41 @@
         <v>98200</v>
       </c>
     </row>
+    <row r="2070">
+      <c r="A2070" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2070" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2070" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2070" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2070" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2070" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2070" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2070" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2070" t="n">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2070"/>
+  <dimension ref="A1:I2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73890,6 +73890,41 @@
         <v>500</v>
       </c>
     </row>
+    <row r="2071">
+      <c r="A2071" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2071" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2071" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2071" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2071" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2071" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2071" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2071" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2071" t="n">
+        <v>16600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2071"/>
+  <dimension ref="A1:I2072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73925,6 +73925,43 @@
         <v>16600</v>
       </c>
     </row>
+    <row r="2072">
+      <c r="A2072" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2072" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2072" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2072" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2072" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2072" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2072" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2072" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2072" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2072"/>
+  <dimension ref="A1:I2073"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73962,6 +73962,43 @@
         </is>
       </c>
     </row>
+    <row r="2073">
+      <c r="A2073" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2073" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2073" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2073" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2073" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2073" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2073" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2073" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2073" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2073"/>
+  <dimension ref="A1:I2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73999,6 +73999,41 @@
         </is>
       </c>
     </row>
+    <row r="2074">
+      <c r="A2074" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2074" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2074" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2074" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2074" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2074" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2074" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2074" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2074" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2074"/>
+  <dimension ref="A1:I2075"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74034,6 +74034,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2075">
+      <c r="A2075" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2075" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2075" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2075" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2075" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2075" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2075" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2075" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2075" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2075"/>
+  <dimension ref="A1:I2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74071,6 +74071,43 @@
         </is>
       </c>
     </row>
+    <row r="2076">
+      <c r="A2076" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2076" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2076" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2076" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2076" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2076" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2076" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2076" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2076" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2076"/>
+  <dimension ref="A1:I2077"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74108,6 +74108,43 @@
         </is>
       </c>
     </row>
+    <row r="2077">
+      <c r="A2077" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2077" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2077" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2077" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2077" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2077" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2077" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2077" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2077" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2077"/>
+  <dimension ref="A1:I2078"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74145,6 +74145,43 @@
         </is>
       </c>
     </row>
+    <row r="2078">
+      <c r="A2078" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2078" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2078" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2078" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2078" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2078" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2078" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2078" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2078" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2078"/>
+  <dimension ref="A1:I2079"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74182,6 +74182,43 @@
         </is>
       </c>
     </row>
+    <row r="2079">
+      <c r="A2079" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2079" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2079" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2079" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2079" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2079" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2079" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2079" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2079" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2079"/>
+  <dimension ref="A1:I2080"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74219,6 +74219,43 @@
         </is>
       </c>
     </row>
+    <row r="2080">
+      <c r="A2080" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2080" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2080" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2080" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2080" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2080" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2080" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2080" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2080" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2080"/>
+  <dimension ref="A1:I2081"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74256,6 +74256,43 @@
         </is>
       </c>
     </row>
+    <row r="2081">
+      <c r="A2081" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2081" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2081" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2081" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2081" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2081" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2081" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2081" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2081" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2457"/>
+  <dimension ref="A1:I2458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87453,6 +87453,43 @@
         </is>
       </c>
     </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2458" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2458" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2458" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2458" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2458"/>
+  <dimension ref="A1:I2459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87490,6 +87490,41 @@
         </is>
       </c>
     </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2459" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2459" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2459" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2459" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2459"/>
+  <dimension ref="A1:I2460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87525,6 +87525,43 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2460" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2460" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2460" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2460" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2460"/>
+  <dimension ref="A1:I2461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87562,6 +87562,43 @@
         </is>
       </c>
     </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2461" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2461" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2461" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2461" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2461"/>
+  <dimension ref="A1:I2462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87599,6 +87599,43 @@
         </is>
       </c>
     </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2462" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2462" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2462" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2462" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2462"/>
+  <dimension ref="A1:I2463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87636,6 +87636,41 @@
         </is>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2463" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2463"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87671,6 +87671,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2464" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2464"/>
+  <dimension ref="A1:I2465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87708,6 +87708,43 @@
         </is>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2465" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87745,6 +87745,41 @@
         </is>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2466" t="n">
+        <v>33000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2466"/>
+  <dimension ref="A1:I2467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87780,6 +87780,41 @@
         <v>33000</v>
       </c>
     </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2467" t="n">
+        <v>150000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2467"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87815,6 +87815,78 @@
         <v>150000</v>
       </c>
     </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2468" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2469" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87887,6 +87887,43 @@
         </is>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2470" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87924,6 +87924,111 @@
         </is>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>229900</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>110500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88029,6 +88029,43 @@
         <v>110500</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2474" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88066,6 +88066,41 @@
         </is>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>319000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5129.xlsx
+++ b/data/5129.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88101,6 +88101,111 @@
         <v>319000</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>336200</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2477" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2477" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2477" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2477" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2477" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2477" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2477" t="n">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2478" t="inlineStr">
+        <is>
+          <t>5129</t>
+        </is>
+      </c>
+      <c r="D2478" t="inlineStr">
+        <is>
+          <t>MELATI</t>
+        </is>
+      </c>
+      <c r="E2478" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2478" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2478" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2478" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2478" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
